--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2048182.613124811</v>
+        <v>2152362.247575882</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283184</v>
       </c>
     </row>
     <row r="9">
@@ -656,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -677,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +715,19 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>353.8919885883749</v>
+        <v>79.9153410684994</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,22 +822,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -862,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>144.2875934942265</v>
       </c>
       <c r="T4" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>216.9027840541185</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -883,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -893,19 +895,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>22.79319361026464</v>
       </c>
       <c r="E5" t="n">
-        <v>50.10896315666737</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
         <v>410.9217256534534</v>
@@ -947,13 +949,13 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -1051,22 +1053,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
@@ -1102,7 +1104,7 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>5.417333439929709</v>
       </c>
       <c r="T7" t="n">
         <v>219.5489492761692</v>
@@ -1111,7 +1113,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>38.80337173182804</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1133,16 +1135,16 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>122.1009508766887</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1193,7 +1195,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>166.200080060932</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1288,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1309,7 +1311,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>80.71262740536827</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>133.6678680078464</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1373,7 +1375,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
@@ -1436,7 +1438,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1525,19 +1527,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>135.3135037226517</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1579,7 +1581,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.8175509096639</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1593,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1670,7 +1672,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1762,16 +1764,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
@@ -1780,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>136.1078891637031</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>45.17596778974989</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1828,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1841,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D17" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417113</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518786</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695545</v>
+        <v>83.70251495695511</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174128</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>18.49605685439089</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>286.184474389244</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X19" t="n">
-        <v>13.94435783112388</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634804</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710074</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206828</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722616</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417132</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187865</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444136</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695511</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576159</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701347</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784689</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560534</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2238,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986278</v>
+        <v>167.2468210986277</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229311</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>165.5241382922687</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462237</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>20.13408744447714</v>
+        <v>66.37524671012149</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016444</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>263.3663026263119</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238278</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365908</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>225.709655389037</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>218.5846533520946</v>
       </c>
     </row>
     <row r="23">
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2384,7 +2386,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y23" t="n">
-        <v>386.2379386560531</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="24">
@@ -2479,22 +2481,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2530,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>142.5631989720297</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>225.1727202799172</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2719,10 +2721,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
         <v>165.5241382922688</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2776,10 +2778,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>78.13809416960228</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2843,7 +2845,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
         <v>250.9057009881286</v>
@@ -2950,10 +2952,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>144.6100405317613</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -2968,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,7 +3000,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3010,13 +3012,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>71.56327578339665</v>
       </c>
     </row>
     <row r="32">
@@ -3184,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819373</v>
+        <v>179.8319801819375</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>92.20984583428303</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>1.839588425939787</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890372</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.5846533520948</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="35">
@@ -3278,7 +3280,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3421,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>71.58885292964064</v>
+        <v>145.0891016767004</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>167.246821098628</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182125</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>146.4339626465693</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>145.4210480229314</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>165.524138292269</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>140.2947128462241</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.2658363185657</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>181.0262860016448</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892441</v>
+        <v>286.1844743892443</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.584653352095</v>
       </c>
     </row>
     <row r="38">
@@ -3658,7 +3660,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
         <v>167.2468210986278</v>
@@ -3673,10 +3675,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -3706,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>191.6604102493268</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3721,10 +3723,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
-        <v>113.0992099793449</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y40" t="n">
         <v>218.5846533520948</v>
@@ -3743,7 +3745,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D41" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E41" t="n">
         <v>381.9303700722618</v>
@@ -3904,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3948,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
         <v>217.4054503272883</v>
@@ -3955,7 +3957,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>105.321942911332</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3964,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>154.0489950679129</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3992,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444123</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>57.02356321678085</v>
+        <v>1.799772605716168</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4304,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1934.208022973022</v>
+        <v>1601.11348746897</v>
       </c>
       <c r="C2" t="n">
-        <v>1934.208022973022</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="D2" t="n">
-        <v>1575.942324366272</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E2" t="n">
-        <v>1190.154071768027</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F2" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G2" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2678.274518176916</v>
+        <v>2424.744041450754</v>
       </c>
       <c r="W2" t="n">
-        <v>2678.274518176916</v>
+        <v>2071.97538618064</v>
       </c>
       <c r="X2" t="n">
-        <v>2320.807863037144</v>
+        <v>1991.252819444782</v>
       </c>
       <c r="Y2" t="n">
-        <v>2320.807863037144</v>
+        <v>1601.11348746897</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811087</v>
+        <v>1702.096133556939</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999817</v>
+        <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387305</v>
+        <v>1378.708694614561</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332749</v>
+        <v>1219.471239609105</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601599</v>
+        <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>936.5735814686088</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>846.0716871064762</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>827.0643955080142</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>920.7416649986314</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>1159.005863978979</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>1525.704024291644</v>
       </c>
       <c r="M3" t="n">
-        <v>1212.428070438129</v>
+        <v>1972.98034951396</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>2446.503393068414</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2857.464672486469</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>3167.964263962572</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="R3" t="n">
-        <v>2564.909189125856</v>
+        <v>3325.461468201687</v>
       </c>
       <c r="S3" t="n">
-        <v>2435.471302619336</v>
+        <v>3196.023581695167</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297192</v>
+        <v>3003.380581373022</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431608</v>
+        <v>2775.312734507438</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199865</v>
+        <v>2540.160626275695</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471663</v>
+        <v>2285.923269547494</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.519490266131</v>
+        <v>2078.071769341961</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501177</v>
+        <v>1870.311470577007</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>795.2798542473295</v>
+        <v>385.5649387724261</v>
       </c>
       <c r="C4" t="n">
-        <v>626.3436713194226</v>
+        <v>216.6287558445192</v>
       </c>
       <c r="D4" t="n">
-        <v>626.3436713194226</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="E4" t="n">
-        <v>478.4305777370295</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="F4" t="n">
-        <v>331.5406302391191</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4510,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1781.549504154931</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1559.782888724457</v>
       </c>
       <c r="U4" t="n">
-        <v>1424.011591242373</v>
+        <v>1270.6800218501</v>
       </c>
       <c r="V4" t="n">
-        <v>1204.917869975587</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="W4" t="n">
-        <v>1204.917869975587</v>
+        <v>1015.995533644213</v>
       </c>
       <c r="X4" t="n">
-        <v>976.9283190775692</v>
+        <v>788.005982746196</v>
       </c>
       <c r="Y4" t="n">
-        <v>976.9283190775692</v>
+        <v>567.2134036026658</v>
       </c>
     </row>
     <row r="5">
@@ -4541,16 +4543,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1308.370295943748</v>
+        <v>1712.341567565138</v>
       </c>
       <c r="C5" t="n">
-        <v>939.4077790033361</v>
+        <v>1343.379050624726</v>
       </c>
       <c r="D5" t="n">
-        <v>581.1420803965857</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>530.5269660969217</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
         <v>523.5814653477182</v>
@@ -4565,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4595,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2862.546497866151</v>
       </c>
       <c r="X5" t="n">
-        <v>1698.50962791956</v>
+        <v>2489.080739605071</v>
       </c>
       <c r="Y5" t="n">
-        <v>1308.370295943748</v>
+        <v>2098.94140762926</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4622,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I6" t="n">
         <v>66.51211643218342</v>
@@ -4647,13 +4649,13 @@
         <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
         <v>1685.951113992584</v>
@@ -4662,34 +4664,34 @@
         <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,19 +4701,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>624.6477645191717</v>
+        <v>777.020896318616</v>
       </c>
       <c r="C7" t="n">
-        <v>624.6477645191717</v>
+        <v>608.0847133907091</v>
       </c>
       <c r="D7" t="n">
-        <v>624.6477645191717</v>
+        <v>457.9680739783734</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G7" t="n">
         <v>310.0549803959803</v>
@@ -4750,25 +4752,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1831.992036866294</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1610.22542143582</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1321.122554561464</v>
       </c>
       <c r="V7" t="n">
-        <v>1095.713399386372</v>
+        <v>1066.438066355577</v>
       </c>
       <c r="W7" t="n">
-        <v>806.2962293494114</v>
+        <v>777.020896318616</v>
       </c>
       <c r="X7" t="n">
-        <v>806.2962293494114</v>
+        <v>777.020896318616</v>
       </c>
       <c r="Y7" t="n">
-        <v>806.2962293494114</v>
+        <v>777.020896318616</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1295.236214140705</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="C8" t="n">
-        <v>1171.901920325867</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>1171.901920325867</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218339</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136265</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520487</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794323</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2424.744041450752</v>
+        <v>2535.034709923658</v>
       </c>
       <c r="W8" t="n">
-        <v>2071.975386180638</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="X8" t="n">
-        <v>2071.975386180638</v>
+        <v>2367.155841175242</v>
       </c>
       <c r="Y8" t="n">
-        <v>1681.836054204826</v>
+        <v>1977.016509199431</v>
       </c>
     </row>
     <row r="9">
@@ -4857,43 +4859,43 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031482</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158134</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
         <v>2096.912393410638</v>
@@ -4914,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4936,10 +4938,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1091.613680441807</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="C10" t="n">
-        <v>922.6774975139006</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="D10" t="n">
         <v>772.5608581015648</v>
@@ -4957,19 +4959,19 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4981,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.46409084602</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="S10" t="n">
-        <v>1755.936184375951</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1755.936184375951</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="U10" t="n">
-        <v>1755.936184375951</v>
+        <v>1510.760158180073</v>
       </c>
       <c r="V10" t="n">
-        <v>1501.251696170064</v>
+        <v>1510.760158180073</v>
       </c>
       <c r="W10" t="n">
-        <v>1501.251696170064</v>
+        <v>1221.342988143112</v>
       </c>
       <c r="X10" t="n">
-        <v>1273.262145272047</v>
+        <v>993.3534372450949</v>
       </c>
       <c r="Y10" t="n">
-        <v>1273.262145272047</v>
+        <v>772.5608581015648</v>
       </c>
     </row>
     <row r="11">
@@ -5042,22 +5044,22 @@
         <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075808</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
         <v>4562.265728852255</v>
@@ -5115,25 +5117,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961525</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5173,16 +5175,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>782.8410298377091</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="C13" t="n">
-        <v>782.8410298377091</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253734</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
         <v>484.8112968429803</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.458958710129</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1729.383732054327</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1474.69924384844</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1185.282073811479</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1185.282073811479</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>964.4894946679489</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="14">
@@ -5267,22 +5269,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
         <v>2206.558663014778</v>
@@ -5291,7 +5293,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5318,7 +5320,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5355,28 +5357,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L15" t="n">
-        <v>710.2486053718725</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>695.5020655703109</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>695.5020655703109</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>545.3854261579752</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>545.3854261579752</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>398.4954786600648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>231.2993793749447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5461,25 +5463,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2334.285089135946</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>2045.209862480144</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1790.525374274257</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611858</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="X16" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="17">
@@ -5501,55 +5503,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H17" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T17" t="n">
         <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852888</v>
@@ -5558,7 +5560,7 @@
         <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="18">
@@ -5595,25 +5597,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>484.8243144841095</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L18" t="n">
-        <v>980.1499206998682</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M18" t="n">
-        <v>1577.52840832642</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N18" t="n">
-        <v>1577.52840832642</v>
+        <v>1468.439756756785</v>
       </c>
       <c r="O18" t="n">
-        <v>2129.438138565707</v>
+        <v>2020.349486996072</v>
       </c>
       <c r="P18" t="n">
-        <v>2553.061288060775</v>
+        <v>2443.97263649114</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>948.5505208511906</v>
+        <v>800.5007694647313</v>
       </c>
       <c r="C19" t="n">
-        <v>779.6143379232838</v>
+        <v>781.8178837532254</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>631.7012443408898</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>484.8112968429797</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578598</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000581</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2264.108249235167</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1975.033022579365</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1720.348534373478</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1430.931364336518</v>
       </c>
       <c r="X19" t="n">
-        <v>1130.19898568143</v>
+        <v>1202.941813438501</v>
       </c>
       <c r="Y19" t="n">
-        <v>1130.19898568143</v>
+        <v>982.1492342949708</v>
       </c>
     </row>
     <row r="20">
@@ -5726,43 +5728,43 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362684</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
         <v>3640.422291068009</v>
@@ -5780,22 +5782,22 @@
         <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="21">
@@ -5829,28 +5831,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1268.578514636218</v>
       </c>
       <c r="N21" t="n">
-        <v>1652.717886400351</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="O21" t="n">
-        <v>2204.627616639638</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>781.3544215660705</v>
+        <v>718.5507239167105</v>
       </c>
       <c r="C22" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888037</v>
       </c>
       <c r="D22" t="n">
-        <v>612.4182386381636</v>
+        <v>549.6145409888037</v>
       </c>
       <c r="E22" t="n">
-        <v>464.5051450557705</v>
+        <v>549.6145409888037</v>
       </c>
       <c r="F22" t="n">
-        <v>317.6151975578602</v>
+        <v>402.7245934908935</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057736</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782959</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038348</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797751</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570819</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279804</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853363</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580262</v>
       </c>
       <c r="R22" t="n">
-        <v>2426.625621515132</v>
+        <v>2379.917379832665</v>
       </c>
       <c r="S22" t="n">
-        <v>2243.770787170036</v>
+        <v>2197.062545487569</v>
       </c>
       <c r="T22" t="n">
-        <v>2024.169322192977</v>
+        <v>1977.461080510511</v>
       </c>
       <c r="U22" t="n">
-        <v>1735.094095537175</v>
+        <v>1711.434512201105</v>
       </c>
       <c r="V22" t="n">
-        <v>1480.409607331288</v>
+        <v>1456.750023995218</v>
       </c>
       <c r="W22" t="n">
-        <v>1190.992437294328</v>
+        <v>1167.332853958258</v>
       </c>
       <c r="X22" t="n">
-        <v>963.0028863963103</v>
+        <v>939.3433030602404</v>
       </c>
       <c r="Y22" t="n">
-        <v>963.0028863963103</v>
+        <v>718.5507239167105</v>
       </c>
     </row>
     <row r="23">
@@ -5984,28 +5986,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111696</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107579</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332385</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014777</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355935</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q23" t="n">
         <v>4562.265728852255</v>
@@ -6063,25 +6065,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M24" t="n">
-        <v>1103.652278938886</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1731.250242493492</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
-        <v>2283.159972732779</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
         <v>2283.159972732779</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>2886.739351141026</v>
+        <v>658.9255961109956</v>
       </c>
       <c r="C25" t="n">
-        <v>2717.80316821312</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="D25" t="n">
-        <v>2567.686528800784</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>2419.773435218391</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>2419.773435218391</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H25" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>4690.833152398593</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>4507.978318053498</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>4288.376853076439</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>3999.301626420637</v>
+        <v>1833.45784922563</v>
       </c>
       <c r="V25" t="n">
-        <v>3744.61713821475</v>
+        <v>1578.773361019743</v>
       </c>
       <c r="W25" t="n">
-        <v>3517.169946012814</v>
+        <v>1289.356190982783</v>
       </c>
       <c r="X25" t="n">
-        <v>3289.180395114796</v>
+        <v>1061.366640084765</v>
       </c>
       <c r="Y25" t="n">
-        <v>3068.387815971266</v>
+        <v>840.5740609412353</v>
       </c>
     </row>
     <row r="26">
@@ -6212,25 +6214,25 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6300,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L27" t="n">
-        <v>980.1499206998682</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M27" t="n">
-        <v>1577.52840832642</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.7540666811333</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>781.8178837532264</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>631.7012443408906</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>1211.329899359456</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>1132.402531511373</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6452,19 +6454,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797186</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6482,13 +6484,13 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
         <v>4405.252601474784</v>
@@ -6497,13 +6499,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6534,25 +6536,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L30" t="n">
-        <v>923.0670414349511</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M30" t="n">
-        <v>923.0670414349511</v>
+        <v>840.8417932021785</v>
       </c>
       <c r="N30" t="n">
-        <v>1550.665004989558</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O30" t="n">
         <v>1859.536823237711</v>
@@ -6595,28 +6597,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>696.7084350851671</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C31" t="n">
-        <v>696.7084350851671</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D31" t="n">
-        <v>550.637687073287</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
         <v>174.0526814782957</v>
@@ -6646,25 +6648,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1616.556199993915</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1327.139029956954</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X31" t="n">
-        <v>1099.149479058937</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y31" t="n">
-        <v>878.3568999154069</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="32">
@@ -6674,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6731,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6774,31 +6776,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>95.58405025273903</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>139.234765840794</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L33" t="n">
-        <v>634.5603720565526</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="M33" t="n">
-        <v>1231.938859683105</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N33" t="n">
-        <v>1859.536823237711</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1016.58045691144</v>
+        <v>1022.872235754088</v>
       </c>
       <c r="C34" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356205</v>
       </c>
       <c r="D34" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232847</v>
       </c>
       <c r="E34" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408913</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N34" t="n">
         <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R34" t="n">
-        <v>2445.104913453049</v>
+        <v>2379.917379832661</v>
       </c>
       <c r="S34" t="n">
-        <v>2445.104913453049</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="T34" t="n">
-        <v>2225.50344847599</v>
+        <v>2197.062545487565</v>
       </c>
       <c r="U34" t="n">
-        <v>1936.428221820188</v>
+        <v>1907.987318831763</v>
       </c>
       <c r="V34" t="n">
-        <v>1936.428221820188</v>
+        <v>1653.302830625876</v>
       </c>
       <c r="W34" t="n">
-        <v>1647.011051783227</v>
+        <v>1653.302830625876</v>
       </c>
       <c r="X34" t="n">
-        <v>1419.02150088521</v>
+        <v>1425.313279727858</v>
       </c>
       <c r="Y34" t="n">
-        <v>1198.22892174168</v>
+        <v>1204.520700584328</v>
       </c>
     </row>
     <row r="35">
@@ -6917,25 +6919,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
@@ -6944,13 +6946,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6990,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C36" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D36" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F36" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G36" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K36" t="n">
-        <v>243.4633055756266</v>
+        <v>2418.621364762389</v>
       </c>
       <c r="L36" t="n">
-        <v>738.7889117913853</v>
+        <v>2913.946970978148</v>
       </c>
       <c r="M36" t="n">
-        <v>1336.167399417937</v>
+        <v>3511.3254586047</v>
       </c>
       <c r="N36" t="n">
-        <v>1963.765362972544</v>
+        <v>4138.923422159307</v>
       </c>
       <c r="O36" t="n">
-        <v>2515.675093211831</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="R36" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S36" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T36" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U36" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V36" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W36" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X36" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y36" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="37">
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3342.537229081859</v>
+        <v>1098.667160263528</v>
       </c>
       <c r="C37" t="n">
-        <v>3173.601046153952</v>
+        <v>929.7309773356205</v>
       </c>
       <c r="D37" t="n">
-        <v>3023.484406741616</v>
+        <v>779.6143379232847</v>
       </c>
       <c r="E37" t="n">
-        <v>2875.571313159223</v>
+        <v>631.7012443408913</v>
       </c>
       <c r="F37" t="n">
-        <v>2728.681365661313</v>
+        <v>484.8112968429808</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>317.6151975578605</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>175.9033664000584</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782955</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.741944003834</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.140538179774</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910808</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279801</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S37" t="n">
-        <v>4440.9326143059</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T37" t="n">
-        <v>4221.331149328841</v>
+        <v>2044.506784258104</v>
       </c>
       <c r="U37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V37" t="n">
-        <v>3932.255922673039</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="W37" t="n">
-        <v>3642.838752636078</v>
+        <v>1466.014387565341</v>
       </c>
       <c r="X37" t="n">
-        <v>3414.849201738061</v>
+        <v>1466.014387565341</v>
       </c>
       <c r="Y37" t="n">
-        <v>3414.849201738061</v>
+        <v>1245.221808421811</v>
       </c>
     </row>
     <row r="38">
@@ -7163,16 +7165,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
@@ -7187,7 +7189,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7208,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7227,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>943.3991132778466</v>
+        <v>3081.170977615666</v>
       </c>
       <c r="C39" t="n">
-        <v>768.9460839967196</v>
+        <v>2906.717948334539</v>
       </c>
       <c r="D39" t="n">
-        <v>620.0116743354683</v>
+        <v>2757.783538673288</v>
       </c>
       <c r="E39" t="n">
-        <v>460.7742193300128</v>
+        <v>2598.546083667832</v>
       </c>
       <c r="F39" t="n">
-        <v>314.2396613568978</v>
+        <v>2452.011525694717</v>
       </c>
       <c r="G39" t="n">
-        <v>178.4809954028057</v>
+        <v>2316.252859740625</v>
       </c>
       <c r="H39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>2231.588527385791</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="K39" t="n">
-        <v>243.4633055756266</v>
+        <v>2381.235169913446</v>
       </c>
       <c r="L39" t="n">
-        <v>542.9134462654469</v>
+        <v>2876.560776129205</v>
       </c>
       <c r="M39" t="n">
-        <v>1140.291933891999</v>
+        <v>3051.062654156519</v>
       </c>
       <c r="N39" t="n">
-        <v>1767.889897446606</v>
+        <v>3678.660617711126</v>
       </c>
       <c r="O39" t="n">
-        <v>2319.799627685893</v>
+        <v>4230.570347950413</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>4654.193497445481</v>
       </c>
       <c r="R39" t="n">
-        <v>2553.061288060775</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S39" t="n">
-        <v>2434.850501963388</v>
+        <v>4572.622366301206</v>
       </c>
       <c r="T39" t="n">
-        <v>2244.643795685161</v>
+        <v>4382.41566002298</v>
       </c>
       <c r="U39" t="n">
-        <v>2016.615714228345</v>
+        <v>4154.387578566165</v>
       </c>
       <c r="V39" t="n">
-        <v>1781.463605996603</v>
+        <v>3919.235470334422</v>
       </c>
       <c r="W39" t="n">
-        <v>1527.226249268401</v>
+        <v>3664.998113606221</v>
       </c>
       <c r="X39" t="n">
-        <v>1319.374749062868</v>
+        <v>3457.146613400688</v>
       </c>
       <c r="Y39" t="n">
-        <v>1111.614450297915</v>
+        <v>3249.386314635734</v>
       </c>
     </row>
     <row r="40">
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1098.667160263527</v>
+        <v>789.7592298206043</v>
       </c>
       <c r="C40" t="n">
-        <v>929.7309773356195</v>
+        <v>620.8230468926974</v>
       </c>
       <c r="D40" t="n">
-        <v>779.6143379232838</v>
+        <v>470.7064074803617</v>
       </c>
       <c r="E40" t="n">
-        <v>631.7012443408906</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
         <v>175.9033664000583</v>
@@ -7354,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2253.366709591041</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1964.291482935239</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1709.606994729352</v>
       </c>
       <c r="W40" t="n">
-        <v>1433.701365648819</v>
+        <v>1420.189824692392</v>
       </c>
       <c r="X40" t="n">
-        <v>1319.459739407057</v>
+        <v>1192.200273794374</v>
       </c>
       <c r="Y40" t="n">
-        <v>1098.667160263527</v>
+        <v>971.4076946508441</v>
       </c>
     </row>
     <row r="41">
@@ -7385,10 +7387,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7403,58 +7405,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7484,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L42" t="n">
-        <v>577.3880777468471</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,28 +7545,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1016.58045691144</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C43" t="n">
-        <v>847.644273983533</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711973</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888042</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
         <v>174.0526814782957</v>
@@ -7594,25 +7596,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1871.240688199802</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1871.240688199802</v>
+        <v>1582.000052934169</v>
       </c>
       <c r="W43" t="n">
-        <v>1581.823518162841</v>
+        <v>1292.582882897208</v>
       </c>
       <c r="X43" t="n">
-        <v>1353.833967264824</v>
+        <v>1064.593331999191</v>
       </c>
       <c r="Y43" t="n">
-        <v>1198.22892174168</v>
+        <v>843.8007528556607</v>
       </c>
     </row>
     <row r="44">
@@ -7631,52 +7633,52 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362672</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111711</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075804</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R44" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7701,76 +7703,76 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>3081.170977615665</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C45" t="n">
-        <v>2906.717948334538</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D45" t="n">
-        <v>2757.783538673287</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E45" t="n">
-        <v>2598.546083667831</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>2452.011525694716</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>2316.252859740624</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>2231.58852738579</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>2233.355914590557</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>2233.355914590557</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K45" t="n">
-        <v>2359.11504251899</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="L45" t="n">
-        <v>2854.440648734749</v>
+        <v>738.7889117913853</v>
       </c>
       <c r="M45" t="n">
-        <v>2854.440648734749</v>
+        <v>1336.167399417937</v>
       </c>
       <c r="N45" t="n">
-        <v>3482.038612289356</v>
+        <v>1963.765362972544</v>
       </c>
       <c r="O45" t="n">
-        <v>4033.948342528643</v>
+        <v>2515.675093211831</v>
       </c>
       <c r="P45" t="n">
-        <v>4457.571492023711</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q45" t="n">
-        <v>4690.833152398593</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S45" t="n">
-        <v>4572.622366301205</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T45" t="n">
-        <v>4382.415660022979</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U45" t="n">
-        <v>4154.387578566164</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V45" t="n">
-        <v>3919.235470334421</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W45" t="n">
-        <v>3664.99811360622</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X45" t="n">
-        <v>3457.146613400687</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y45" t="n">
-        <v>3249.386314635733</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="46">
@@ -7780,28 +7782,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>695.5020655703109</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>695.5020655703109</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>637.9025067654818</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E46" t="n">
-        <v>489.9894131830887</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
         <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
         <v>174.0526814782957</v>
@@ -9161,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>-1.477928890381008e-12</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23413,19 +23415,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>13.30196929556061</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23467,7 +23469,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.58789941762436</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23481,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23650,16 +23652,16 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23668,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>4.186823682520753</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>135.8503182118947</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23716,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,13 +23892,13 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>148.7507642442368</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -23935,13 +23937,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012149</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272881</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23953,10 +23955,10 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>211.7652975579133</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24124,28 +24126,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819371</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>148.6154730182122</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.433962646569</v>
       </c>
       <c r="F22" t="n">
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856535</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>46.24115926564455</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24181,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>22.81817176293202</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24193,7 +24195,7 @@
         <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -24367,16 +24369,16 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -24409,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24418,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>143.6212754172145</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>61.35027805667383</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24607,10 +24609,10 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24664,10 +24666,10 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>140.4465591824925</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24838,10 +24840,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>4.005432486451014</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -24856,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,7 +24888,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24898,13 +24900,13 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>147.0213775686981</v>
       </c>
     </row>
     <row r="32">
@@ -25075,7 +25077,7 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>75.03697526434497</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25093,7 +25095,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,22 +25122,22 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>64.53565828418191</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272884</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.5229983365912</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25309,7 +25311,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>108.2431272522967</v>
+        <v>34.74287850523703</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
@@ -25357,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012186</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25369,16 +25371,16 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.137643323828</v>
+        <v>252.1376433238282</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890373</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25548,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25561,10 +25563,10 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -25594,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>25.74504007796142</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25609,10 +25611,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>112.6104454096922</v>
+        <v>0</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25792,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25834,7 +25836,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
@@ -25843,7 +25845,7 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>146.815700412496</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>64.53565828418192</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>91.59190980143151</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="10">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="15">
@@ -26323,28 +26325,28 @@
         <v>585181.2847752544</v>
       </c>
       <c r="F2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="G2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="H2" t="n">
+        <v>585181.2847752542</v>
+      </c>
+      <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
-      <c r="G2" t="n">
-        <v>585181.2847752543</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752548</v>
-      </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>585181.2847752542</v>
-      </c>
-      <c r="J2" t="n">
-        <v>585181.2847752543</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752545</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752541</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
@@ -26372,13 +26374,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073554</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>3.077473138546338e-10</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26396,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314485</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="C4" t="n">
         <v>90354.0670231448</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.06702314486</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179351</v>
@@ -26430,13 +26432,13 @@
         <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
+        <v>11167.03225179362</v>
+      </c>
+      <c r="H4" t="n">
+        <v>11167.03225179358</v>
+      </c>
+      <c r="I4" t="n">
         <v>11167.03225179351</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="I4" t="n">
-        <v>11167.03225179352</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26445,19 +26447,19 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="M4" t="n">
+        <v>11167.03225179346</v>
+      </c>
+      <c r="N4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="M4" t="n">
+      <c r="O4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="N4" t="n">
-        <v>11167.03225179352</v>
-      </c>
-      <c r="O4" t="n">
-        <v>11167.03225179352</v>
-      </c>
       <c r="P4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
     </row>
     <row r="5">
@@ -26525,37 +26527,37 @@
         <v>396967.2755670674</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670677</v>
+        <v>396967.2755670676</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921984</v>
+        <v>147479.2608921987</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995537</v>
+        <v>472891.7226995538</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995537</v>
+        <v>472891.7226995533</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995542</v>
+        <v>472891.7226995535</v>
       </c>
       <c r="I6" t="n">
+        <v>472891.7226995538</v>
+      </c>
+      <c r="J6" t="n">
+        <v>255360.520302276</v>
+      </c>
+      <c r="K6" t="n">
+        <v>472891.7226995538</v>
+      </c>
+      <c r="L6" t="n">
+        <v>472891.7226995538</v>
+      </c>
+      <c r="M6" t="n">
+        <v>387836.6947640417</v>
+      </c>
+      <c r="N6" t="n">
         <v>472891.7226995536</v>
-      </c>
-      <c r="J6" t="n">
-        <v>255360.5203022762</v>
-      </c>
-      <c r="K6" t="n">
-        <v>472891.7226995537</v>
-      </c>
-      <c r="L6" t="n">
-        <v>472891.7226995539</v>
-      </c>
-      <c r="M6" t="n">
-        <v>387836.6947640419</v>
-      </c>
-      <c r="N6" t="n">
-        <v>472891.7226995537</v>
       </c>
       <c r="O6" t="n">
         <v>472891.7226995538</v>
@@ -26698,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26920,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26966,13 +26968,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483757</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27157,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27397,7 +27399,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27435,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>15.83911209009409</v>
+        <v>289.8157596099696</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27540,22 +27542,22 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27582,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>45.48143183721541</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>35.23485926970952</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -27603,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27613,19 +27615,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>331.8898480104183</v>
       </c>
       <c r="E5" t="n">
-        <v>331.8214069155944</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
         <v>0</v>
@@ -27667,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27771,22 +27773,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -27822,7 +27824,7 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>184.3516918915122</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -27831,7 +27833,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>213.334271592</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27853,16 +27855,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>243.1719408943188</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27913,7 +27915,7 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>183.040888656481</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28008,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28059,25 +28061,25 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>109.0563979260736</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>152.5439701977665</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28561,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28612,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>-1.762145984685048e-12</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28849,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="C22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="L22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
       <c r="Y22" t="n">
-        <v>0</v>
+        <v>1.637090463191271e-13</v>
       </c>
     </row>
     <row r="23">
@@ -29928,52 +29930,52 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>-1.461004845900164e-13</v>
       </c>
       <c r="K34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="L34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="N34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="O34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="P34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="X34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="Y34" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="J37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="K37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="M37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="N37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="O37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="P37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="Q37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="U37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>-1.637090463191271e-13</v>
       </c>
     </row>
     <row r="38">
@@ -31513,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31598,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31686,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31704,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31835,19 +31837,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>353.6230700590495</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31856,7 +31858,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -32075,19 +32077,19 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L15" t="n">
-        <v>423.9151577118742</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
@@ -32096,10 +32098,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>250.1723312270667</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32224,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>99.52238</v>
@@ -32315,37 +32317,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>381.6404378718165</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>213.1625787491746</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32470,34 +32472,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>677.2750468965962</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P21" t="n">
-        <v>213.3000196296242</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M24" t="n">
-        <v>171.5999003578897</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,43 +32937,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33016,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>545.3845241768652</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N27" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33260,22 +33262,22 @@
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>602.8420149078241</v>
       </c>
       <c r="O30" t="n">
-        <v>454.5879800486398</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
         <v>561.8765786214698</v>
@@ -33439,7 +33441,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33494,25 +33496,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>181.9330708814852</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>620.1193660647499</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
         <v>561.8765786214698</v>
@@ -33521,7 +33523,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33737,7 +33739,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>175.6052721551099</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
@@ -33752,7 +33754,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33977,10 +33979,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L39" t="n">
-        <v>441.0292693655512</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>318.3985571819314</v>
       </c>
       <c r="N39" t="n">
         <v>765.2790490071785</v>
@@ -33989,13 +33991,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34211,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>245.8118639189582</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>139.5228722182831</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
@@ -34232,7 +34234,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,10 +34365,10 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663279</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
         <v>699.5441750817575</v>
@@ -34442,19 +34444,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>264.8708611242907</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
         <v>765.2790490071785</v>
@@ -34463,13 +34465,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>134.7284881171895</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35343,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35483,19 +35485,19 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>211.4890361370311</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35504,7 +35506,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35723,19 +35725,19 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>285.360777932</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
@@ -35744,10 +35746,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>110.1905571410452</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35878,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,28 +35965,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>243.7989988974575</v>
+        <v>0</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>73.18080466315305</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36039,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295359</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,31 +36199,31 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>535.141012974578</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>79.325612215294</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295359</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096352</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191316</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010453</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899076</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060457</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066252</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998986</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36433,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
-        <v>29.46586643587134</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36670,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>406.830144396991</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N27" t="n">
-        <v>0</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36908,22 +36910,22 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>471.5003028244908</v>
       </c>
       <c r="O30" t="n">
-        <v>311.9917356041954</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
         <v>427.9021712071395</v>
@@ -37087,10 +37089,10 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>44.09163190712619</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>477.9853321427316</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
         <v>427.9021712071395</v>
@@ -37169,7 +37171,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295319</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P34" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37385,7 +37387,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>37.76383318075094</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
@@ -37400,7 +37402,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37461,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295319</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096348</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191313</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010449</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P37" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066248</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998982</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37564,7 +37566,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37625,10 +37627,10 @@
         <v>0</v>
       </c>
       <c r="L39" t="n">
-        <v>302.474889585677</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>176.2645232599131</v>
       </c>
       <c r="N39" t="n">
         <v>633.9373369238452</v>
@@ -37637,13 +37639,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37859,16 +37861,16 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>103.6778299969399</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>8.181160134949776</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
@@ -37880,7 +37882,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38011,10 +38013,10 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J44" t="n">
-        <v>285.7087110396416</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
         <v>479.454324036777</v>
@@ -38090,19 +38092,19 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>127.0294221499318</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
         <v>633.9373369238452</v>
@@ -38111,13 +38113,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0.7540807028592577</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2152362.247575882</v>
+        <v>2148349.637561889</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -658,10 +658,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>75.45713216103543</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,10 +709,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -724,7 +724,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>79.9153410684994</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -755,10 +755,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734075887</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -825,19 +825,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,16 +864,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S4" t="n">
-        <v>144.2875934942265</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>80.71262740536758</v>
       </c>
     </row>
     <row r="5">
@@ -898,10 +898,10 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>22.79319361026464</v>
+        <v>195.5565936082874</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -952,10 +952,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -964,7 +964,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,7 +1053,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>71.67037196991669</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,16 +1101,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>5.417333439929709</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -1119,10 +1119,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1135,13 +1135,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>297.4419710579493</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1150,7 +1150,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
@@ -1192,10 +1192,10 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>166.200080060932</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1290,13 +1290,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
@@ -1305,7 +1305,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>144.7550149143208</v>
@@ -1338,19 +1338,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>133.6678680078464</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>82.70057996958644</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1375,13 +1375,13 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417126</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>135.3135037226517</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>77.73359659137328</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,13 +1666,13 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701368</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
         <v>386.2379386560536</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>34.22340015156625</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
@@ -1776,16 +1776,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>45.17596778974989</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1830,7 +1830,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -1843,25 +1843,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D17" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E17" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417113</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187887</v>
       </c>
       <c r="H17" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1894,25 +1894,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695526</v>
       </c>
       <c r="T17" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174128</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="18">
@@ -2001,28 +2001,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819371</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>18.49605685439089</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182122</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856535</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,28 +2049,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>286.184474389244</v>
+        <v>228.9553704673027</v>
       </c>
       <c r="V19" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2080,25 +2080,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>382.7338416634804</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C20" t="n">
-        <v>365.2728917710074</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.6830416206828</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E20" t="n">
-        <v>381.9303700722616</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F20" t="n">
-        <v>406.8760457417132</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
-        <v>283.1540821444136</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2131,25 +2131,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695511</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576159</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V20" t="n">
-        <v>327.7522584701347</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
-        <v>369.7311006784689</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560534</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="21">
@@ -2238,10 +2238,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>167.2468210986277</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229311</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922687</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462237</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,28 +2286,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012149</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016444</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272881</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U22" t="n">
-        <v>263.3663026263119</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.1376433238278</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>286.5229983365908</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.709655389037</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y22" t="n">
-        <v>218.5846533520946</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="23">
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634825</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2487,16 +2487,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2532,7 +2532,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>142.5631989720297</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2611,7 +2611,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881293</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2730,7 +2730,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,13 +2763,13 @@
         <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.9322208041654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,10 +2955,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018862</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>71.56327578339665</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3186,28 +3186,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>179.8319801819375</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>92.20984583428303</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>165.524138292269</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,28 +3234,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012186</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.1376433238282</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
-        <v>225.7096553890373</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y34" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="35">
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>145.0891016767004</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.246821098628</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182125</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465693</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229314</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.524138292269</v>
+        <v>108.2950343703271</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462241</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.2658363185657</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,28 +3471,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016448</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272884</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>286.1844743892443</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.5229983365912</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.584653352095</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,10 +3660,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
@@ -3672,16 +3672,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>61.17550840396343</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3711,10 +3711,10 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>191.6604102493268</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,7 +3903,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -3915,10 +3915,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3957,10 +3957,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>105.321942911332</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>286.522998336591</v>
+        <v>214.4033048062054</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,19 +4140,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>1.799772605716168</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>32.44181015857162</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>81.26583631856553</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1601.11348746897</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>1232.150970528559</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>821.1650657389512</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>406.0926155839476</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520489</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794325</v>
+        <v>2755.806928794323</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450754</v>
+        <v>2424.744041450752</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.97538618064</v>
+        <v>2071.975386180638</v>
       </c>
       <c r="X2" t="n">
-        <v>1991.252819444782</v>
+        <v>1698.509627919558</v>
       </c>
       <c r="Y2" t="n">
-        <v>1601.11348746897</v>
+        <v>1308.370295943746</v>
       </c>
     </row>
     <row r="3">
@@ -4391,7 +4391,7 @@
         <v>1527.643104275812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614561</v>
+        <v>1378.70869461456</v>
       </c>
       <c r="E3" t="n">
         <v>1219.471239609105</v>
@@ -4400,37 +4400,37 @@
         <v>1072.93668163599</v>
       </c>
       <c r="G3" t="n">
-        <v>936.5735814686088</v>
+        <v>936.573581468608</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064762</v>
+        <v>846.0716871064756</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080142</v>
+        <v>827.0643955080135</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986314</v>
+        <v>920.7416649986308</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978979</v>
+        <v>1159.005863978978</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291644</v>
+        <v>1525.704024291643</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.98034951396</v>
+        <v>1972.980349513958</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068414</v>
+        <v>2446.503393068413</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486469</v>
+        <v>2857.464672486467</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962572</v>
+        <v>3167.964263962569</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="R3" t="n">
         <v>3325.461468201687</v>
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>385.5649387724261</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>216.6287558445192</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>66.51211643218343</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>66.51211643218343</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>66.51211643218343</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218343</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218343</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J4" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q4" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S4" t="n">
-        <v>1781.549504154931</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="T4" t="n">
-        <v>1559.782888724457</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="U4" t="n">
-        <v>1270.6800218501</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="V4" t="n">
-        <v>1015.995533644213</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="W4" t="n">
-        <v>1015.995533644213</v>
+        <v>1582.779602640133</v>
       </c>
       <c r="X4" t="n">
-        <v>788.005982746196</v>
+        <v>1354.790051742115</v>
       </c>
       <c r="Y4" t="n">
-        <v>567.2134036026658</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1712.341567565138</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="C5" t="n">
-        <v>1343.379050624726</v>
+        <v>1517.887535471214</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="U5" t="n">
-        <v>3215.315153136266</v>
+        <v>2961.7846764101</v>
       </c>
       <c r="V5" t="n">
-        <v>3215.315153136266</v>
+        <v>2630.72178906653</v>
       </c>
       <c r="W5" t="n">
-        <v>2862.546497866151</v>
+        <v>2277.953133796415</v>
       </c>
       <c r="X5" t="n">
-        <v>2489.080739605071</v>
+        <v>1904.487375535336</v>
       </c>
       <c r="Y5" t="n">
-        <v>2098.94140762926</v>
+        <v>1904.487375535336</v>
       </c>
     </row>
     <row r="6">
@@ -4637,31 +4637,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031481</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158135</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
         <v>2407.411984886741</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>777.020896318616</v>
+        <v>752.7622949738575</v>
       </c>
       <c r="C7" t="n">
-        <v>608.0847133907091</v>
+        <v>583.8261120459506</v>
       </c>
       <c r="D7" t="n">
-        <v>457.9680739783734</v>
+        <v>433.7094726336148</v>
       </c>
       <c r="E7" t="n">
-        <v>310.0549803959803</v>
+        <v>285.7963790512217</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>138.9064315533114</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1831.992036866294</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1610.22542143582</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U7" t="n">
-        <v>1321.122554561464</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V7" t="n">
-        <v>1066.438066355577</v>
+        <v>1672.610059882605</v>
       </c>
       <c r="W7" t="n">
-        <v>777.020896318616</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X7" t="n">
-        <v>777.020896318616</v>
+        <v>1155.203338947627</v>
       </c>
       <c r="Y7" t="n">
-        <v>777.020896318616</v>
+        <v>934.4107598040972</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1590.416669135309</v>
+        <v>1979.067756754391</v>
       </c>
       <c r="C8" t="n">
-        <v>1590.416669135309</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1232.150970528558</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4810,10 +4810,10 @@
         <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993393</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.097597267229</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923658</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W8" t="n">
-        <v>2367.155841175242</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X8" t="n">
-        <v>2367.155841175242</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y8" t="n">
-        <v>1977.016509199431</v>
+        <v>2365.667596818512</v>
       </c>
     </row>
     <row r="9">
@@ -4859,22 +4859,22 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811091</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999821</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387309</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332754</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601604</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927784</v>
       </c>
       <c r="H9" t="n">
         <v>85.51940803064547</v>
@@ -4883,52 +4883,52 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158137</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4938,19 +4938,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>772.5608581015648</v>
+        <v>923.9108438165264</v>
       </c>
       <c r="C10" t="n">
-        <v>772.5608581015648</v>
+        <v>754.9746608886195</v>
       </c>
       <c r="D10" t="n">
-        <v>772.5608581015648</v>
+        <v>604.8580214762837</v>
       </c>
       <c r="E10" t="n">
-        <v>624.6477645191717</v>
+        <v>456.9449278938906</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="G10" t="n">
         <v>310.0549803959803</v>
@@ -4986,28 +4986,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1510.760158180073</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1510.760158180073</v>
+        <v>1843.758608725274</v>
       </c>
       <c r="W10" t="n">
-        <v>1221.342988143112</v>
+        <v>1554.341438688313</v>
       </c>
       <c r="X10" t="n">
-        <v>993.3534372450949</v>
+        <v>1326.351887790296</v>
       </c>
       <c r="Y10" t="n">
-        <v>772.5608581015648</v>
+        <v>1105.559308646766</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551876</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611465</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479719</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.28515749258</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466575</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123004</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.98095685289</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.51519859181</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615998</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>740.5562989961528</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1337.934786622705</v>
       </c>
       <c r="N12" t="n">
-        <v>1802.364528928006</v>
+        <v>1965.532750177312</v>
       </c>
       <c r="O12" t="n">
-        <v>2354.274259167293</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>916.2946447138411</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C13" t="n">
-        <v>916.2946447138411</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y13" t="n">
-        <v>916.2946447138411</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,58 +5266,58 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192609</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068012</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
         <v>3094.515198591809</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,31 +5351,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516146</v>
       </c>
       <c r="L15" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167374</v>
       </c>
       <c r="M15" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793926</v>
       </c>
       <c r="N15" t="n">
-        <v>1468.439756756785</v>
+        <v>2299.457522348533</v>
       </c>
       <c r="O15" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>408.9258559154851</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>261.012762333092</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.15024091081</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="S16" t="n">
-        <v>2334.285089135946</v>
+        <v>2264.108249235172</v>
       </c>
       <c r="T16" t="n">
-        <v>2334.285089135946</v>
+        <v>2044.506784258113</v>
       </c>
       <c r="U16" t="n">
-        <v>2045.209862480144</v>
+        <v>1755.431557602311</v>
       </c>
       <c r="V16" t="n">
-        <v>1790.525374274257</v>
+        <v>1500.747069396424</v>
       </c>
       <c r="W16" t="n">
-        <v>1501.108204237296</v>
+        <v>1211.329899359463</v>
       </c>
       <c r="X16" t="n">
-        <v>1501.108204237296</v>
+        <v>983.340348461446</v>
       </c>
       <c r="Y16" t="n">
-        <v>1280.315625093766</v>
+        <v>762.5477693179158</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551877</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611466</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004715</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406471</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168634</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192608</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111726</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075825</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.89852635594</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068013</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694711</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,34 +5588,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273912</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803939</v>
       </c>
       <c r="K18" t="n">
-        <v>243.4633055756266</v>
+        <v>280.8495004245697</v>
       </c>
       <c r="L18" t="n">
-        <v>243.4633055756266</v>
+        <v>776.1751066403286</v>
       </c>
       <c r="M18" t="n">
-        <v>840.8417932021785</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N18" t="n">
-        <v>1468.439756756785</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
-        <v>2020.349486996072</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2443.97263649114</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>800.5007694647313</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C19" t="n">
-        <v>781.8178837532254</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D19" t="n">
-        <v>631.7012443408898</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408898</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429797</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578598</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000581</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.15024091081</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853362</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.963083580262</v>
+        <v>2379.917379832664</v>
       </c>
       <c r="S19" t="n">
-        <v>2264.108249235167</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2264.108249235167</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1975.033022579365</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V19" t="n">
-        <v>1720.348534373478</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W19" t="n">
-        <v>1430.931364336518</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X19" t="n">
-        <v>1202.941813438501</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y19" t="n">
-        <v>982.1492342949708</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="20">
@@ -5728,10 +5728,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004714</v>
@@ -5740,22 +5740,22 @@
         <v>1204.75955840647</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362684</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192514</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332386</v>
@@ -5764,22 +5764,22 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474785</v>
@@ -5788,16 +5788,16 @@
         <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1268.578514636218</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1896.176478190824</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>718.5507239167105</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>549.6145409888037</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>549.6145409888037</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888037</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908935</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057736</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038348</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797751</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570819</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853363</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832665</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487569</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510511</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1711.434512201105</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1456.750023995218</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1167.332853958258</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>939.3433030602404</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>718.5507239167105</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111696</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.852361107579</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332385</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014777</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355935</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068008</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474786</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466576</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123005</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852891</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591811</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615999</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,28 +6123,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>658.9255961109956</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>489.9894131830887</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>343.0994656851783</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>175.9033664000582</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
         <v>174.0526814782958</v>
@@ -6171,28 +6171,28 @@
         <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1833.45784922563</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1578.773361019743</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1289.356190982783</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1061.366640084765</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>840.5740609412353</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6214,61 +6214,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,34 +6299,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,28 +6360,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782958</v>
@@ -6411,25 +6411,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6451,34 +6451,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,31 +6539,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>840.8417932021785</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>951.777212765616</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C31" t="n">
-        <v>782.8410298377091</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D31" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.701365648819</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.711814750802</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y31" t="n">
-        <v>1133.425677595856</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="32">
@@ -6676,31 +6676,31 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
         <v>852.8523611075807</v>
@@ -6712,40 +6712,40 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,31 +6773,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>243.4633055756266</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1022.872235754088</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>929.7309773356205</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232847</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408913</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429808</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832661</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487565</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>2197.062545487565</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1907.987318831763</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1653.302830625876</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1653.302830625876</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1425.313279727858</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>1204.520700584328</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6913,37 +6913,37 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
         <v>2206.558663014778</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C36" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D36" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G36" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>2418.621364762389</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
-        <v>2913.946970978148</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>3511.3254586047</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>4138.923422159307</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S36" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T36" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U36" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V36" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W36" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X36" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y36" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="37">
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263528</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356205</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232847</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408913</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429808</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578605</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000584</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782955</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.741944003834</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.140538179774</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
-        <v>1248.150240910808</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580259</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2446.963083580259</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2264.108249235163</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2044.506784258104</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1755.431557602302</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1755.431557602302</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1466.014387565341</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1466.014387565341</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1245.221808421811</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7162,34 +7162,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C39" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D39" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E39" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F39" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G39" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H39" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>2876.560776129205</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>3051.062654156519</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>3678.660617711126</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>4230.570347950413</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S39" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T39" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U39" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V39" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W39" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X39" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y39" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="40">
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>789.7592298206043</v>
+        <v>762.547769317909</v>
       </c>
       <c r="C40" t="n">
-        <v>620.8230468926974</v>
+        <v>762.547769317909</v>
       </c>
       <c r="D40" t="n">
-        <v>470.7064074803617</v>
+        <v>612.4311299055732</v>
       </c>
       <c r="E40" t="n">
-        <v>322.7933138979686</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="F40" t="n">
-        <v>175.9033664000583</v>
+        <v>464.5180363231801</v>
       </c>
       <c r="G40" t="n">
-        <v>175.9033664000583</v>
+        <v>297.3219370380601</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>155.6101058802582</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S40" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2253.366709591041</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>1964.291482935239</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1709.606994729352</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1420.189824692392</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1192.200273794374</v>
+        <v>983.3403484614391</v>
       </c>
       <c r="Y40" t="n">
-        <v>971.4076946508441</v>
+        <v>762.547769317909</v>
       </c>
     </row>
     <row r="41">
@@ -7402,31 +7402,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797189</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,28 +7487,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>662.1522880254209</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C43" t="n">
-        <v>493.2161050975141</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F43" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1582.000052934169</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1292.582882897208</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X43" t="n">
-        <v>1064.593331999191</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y43" t="n">
-        <v>843.8007528556607</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7724,31 +7724,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>984.5467179762944</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>815.6105350483875</v>
       </c>
       <c r="D46" t="n">
-        <v>343.0994656851783</v>
+        <v>665.4938956360518</v>
       </c>
       <c r="E46" t="n">
-        <v>343.0994656851783</v>
+        <v>517.5808020536587</v>
       </c>
       <c r="F46" t="n">
-        <v>343.0994656851783</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
-        <v>175.9033664000583</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H46" t="n">
         <v>175.9033664000583</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>1166.195182806534</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>2.288530476235451e-12</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -9163,7 +9163,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>13.30196929556061</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>208.7894017452177</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>145.6085800303711</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012164</v>
       </c>
       <c r="S16" t="n">
-        <v>135.8503182118947</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23718,7 +23718,7 @@
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>148.7507642442368</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.2658363185655</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012149</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272881</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>57.22910392194143</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24126,19 +24126,19 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819371</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182122</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.433962646569</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856535</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,10 +24180,10 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U22" t="n">
-        <v>22.81817176293202</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24375,16 +24375,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24420,7 +24420,7 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>143.6212754172145</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24618,7 +24618,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856552</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24843,10 +24843,10 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
         <v>145.4210480229312</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>57.22910392194183</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>147.0213775686981</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>75.03697526434497</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272884</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25137,7 +25137,7 @@
         <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.5229983365912</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>34.74287850523703</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,7 +25359,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012186</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25371,13 +25371,13 @@
         <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>252.1376433238282</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>225.7096553890373</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
         <v>0</v>
@@ -25548,10 +25548,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
@@ -25560,16 +25560,16 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>20.09032791460209</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,13 +25596,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>25.74504007796142</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -25803,7 +25803,7 @@
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25845,10 +25845,10 @@
         <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>146.815700412496</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>0</v>
+        <v>72.11969353038563</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,19 +26028,19 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>146.8157004124962</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>112.9792378643596</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="15">
@@ -26313,31 +26313,31 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="C2" t="n">
+        <v>595255.2831516056</v>
+      </c>
+      <c r="D2" t="n">
         <v>595255.2831516054</v>
       </c>
-      <c r="C2" t="n">
-        <v>595255.2831516055</v>
-      </c>
-      <c r="D2" t="n">
-        <v>595255.2831516056</v>
-      </c>
       <c r="E2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="F2" t="n">
         <v>585181.2847752544</v>
       </c>
       <c r="G2" t="n">
+        <v>585181.2847752541</v>
+      </c>
+      <c r="H2" t="n">
         <v>585181.2847752544</v>
-      </c>
-      <c r="H2" t="n">
-        <v>585181.2847752542</v>
       </c>
       <c r="I2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="J2" t="n">
-        <v>585181.2847752542</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="K2" t="n">
         <v>585181.2847752543</v>
@@ -26346,16 +26346,16 @@
         <v>585181.2847752543</v>
       </c>
       <c r="M2" t="n">
-        <v>585181.2847752541</v>
+        <v>585181.2847752542</v>
       </c>
       <c r="N2" t="n">
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752543</v>
       </c>
     </row>
     <row r="3">
@@ -26365,22 +26365,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1328744.745727593</v>
+        <v>1328744.745727592</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>1.947259988810401e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>3.077473138546338e-10</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.0279355119</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314479</v>
+        <v>90354.06702314495</v>
       </c>
       <c r="C4" t="n">
+        <v>90354.0670231449</v>
+      </c>
+      <c r="D4" t="n">
         <v>90354.0670231448</v>
       </c>
-      <c r="D4" t="n">
-        <v>90354.06702314479</v>
-      </c>
       <c r="E4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="F4" t="n">
+        <v>11167.03225179352</v>
+      </c>
+      <c r="G4" t="n">
+        <v>11167.03225179342</v>
+      </c>
+      <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
-      <c r="F4" t="n">
-        <v>11167.03225179351</v>
-      </c>
-      <c r="G4" t="n">
-        <v>11167.03225179362</v>
-      </c>
-      <c r="H4" t="n">
-        <v>11167.03225179358</v>
-      </c>
       <c r="I4" t="n">
-        <v>11167.03225179351</v>
+        <v>11167.03225179343</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26447,10 +26447,10 @@
         <v>11167.03225179351</v>
       </c>
       <c r="L4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179351</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239071</v>
+        <v>101122.5298239072</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605253</v>
+        <v>-931777.4701605247</v>
       </c>
       <c r="C6" t="n">
-        <v>396967.2755670674</v>
+        <v>396967.2755670672</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670676</v>
+        <v>396967.2755670671</v>
       </c>
       <c r="E6" t="n">
-        <v>147479.2608921987</v>
+        <v>147131.8816378409</v>
       </c>
       <c r="F6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="G6" t="n">
-        <v>472891.7226995533</v>
+        <v>472544.3434451965</v>
       </c>
       <c r="H6" t="n">
-        <v>472891.7226995535</v>
+        <v>472544.3434451969</v>
       </c>
       <c r="I6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
       <c r="J6" t="n">
-        <v>255360.520302276</v>
+        <v>255013.1410479196</v>
       </c>
       <c r="K6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="L6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="M6" t="n">
-        <v>387836.6947640417</v>
+        <v>387489.3155096847</v>
       </c>
       <c r="N6" t="n">
-        <v>472891.7226995536</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="O6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451967</v>
       </c>
       <c r="P6" t="n">
-        <v>472891.7226995538</v>
+        <v>472544.3434451968</v>
       </c>
     </row>
   </sheetData>
@@ -26700,10 +26700,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26922,7 +26922,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26962,19 +26962,19 @@
         <v>1089.776700593298</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022918</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.306832697356</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27159,7 +27159,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022923</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,10 +27378,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>307.2767095024452</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27444,7 +27444,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>289.8157596099696</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27545,19 +27545,19 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,16 +27584,16 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>45.48143183721541</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>137.8720259467272</v>
       </c>
     </row>
     <row r="5">
@@ -27618,10 +27618,10 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>331.8898480104183</v>
+        <v>159.1264480123956</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,13 +27669,13 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27684,7 +27684,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27773,7 +27773,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>94.35543628911154</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,16 +27821,16 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S7" t="n">
-        <v>184.3516918915122</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -27839,10 +27839,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27855,13 +27855,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>67.83092071305822</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,7 +27903,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -27912,10 +27912,10 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>183.040888656481</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -28010,13 +28010,13 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
@@ -28025,7 +28025,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28058,19 +28058,19 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
         <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>152.5439701977665</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>169.4370633542416</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>0</v>
+        <v>6.41004286687045e-12</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28563,25 +28563,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>-2.103206497849897e-12</v>
       </c>
       <c r="H17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -28614,25 +28614,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -28721,76 +28721,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -28800,25 +28800,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-1.762145984685048e-12</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -28851,25 +28851,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
       </c>
       <c r="X20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -28958,76 +28958,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y22" t="n">
-        <v>1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>-1.932676241267473e-12</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -29930,52 +29930,52 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>-1.461004845900164e-13</v>
+        <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y34" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
@@ -30143,76 +30143,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="M37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="N37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Q37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>-1.637090463191271e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I2" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H4" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L4" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U4" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>699.0496615458081</v>
       </c>
       <c r="P12" t="n">
-        <v>334.7693860946154</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159432</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422587</v>
       </c>
       <c r="L15" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558004</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>250.1723312270667</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,40 +32226,40 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348435</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.32071997135342</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067233</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663284</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817578</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162564</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175678</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159429</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460031</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236509</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669225</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043727</v>
       </c>
       <c r="S17" t="n">
         <v>125.3175546292901</v>
@@ -32268,7 +32268,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078747</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,37 +32311,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>173.8200325543346</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473074</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862124</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071787</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437245</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>213.1625787491746</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.6544928674244</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
@@ -32384,13 +32384,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189903</v>
+        <v>2.466841066189904</v>
       </c>
       <c r="H19" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869278</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796262</v>
@@ -32408,7 +32408,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920059</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532768</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32472,7 +32472,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
         <v>699.5441750817577</v>
@@ -32548,31 +32548,31 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>677.2750468965962</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
@@ -32791,28 +32791,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742439</v>
@@ -32943,7 +32943,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I26" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J26" t="n">
         <v>466.7546155663283</v>
@@ -33028,28 +33028,28 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742439</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>602.8420149078241</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>620.1193660647499</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>175.6052721551099</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>318.3985571819314</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>139.5228722182831</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34444,13 +34444,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34462,16 +34462,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>134.7284881171895</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
         <v>54.65449286742438</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N2" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K4" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O4" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>556.4534171013637</v>
       </c>
       <c r="P12" t="n">
-        <v>200.7949786802852</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789216</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193524</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,31 +35722,31 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678997</v>
       </c>
       <c r="L15" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.165419911356</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572999048</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317341</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396405</v>
+        <v>285.7087110396421</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367772</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462692</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902951</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.858447819352</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243163</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.567533492473</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902405</v>
@@ -35959,34 +35959,34 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774943</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754089</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>35.97859357997559</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.3288951674332</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>603.412613764194</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238455</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992801</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>73.18080466315305</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295344</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899075</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36120,7 +36120,7 @@
         <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
         <v>479.4543240367771</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>535.141012974578</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295359</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096352</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899076</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060457</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066252</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
-        <v>120.4022572998986</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36439,28 +36439,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36591,7 +36591,7 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
@@ -36676,28 +36676,28 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,34 +36907,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>471.5003028244908</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,31 +37144,31 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
-        <v>477.9853321427316</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37226,28 +37226,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q34" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>37.76383318075094</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,28 +37463,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295319</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096348</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191313</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010449</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
-        <v>421.6261329899073</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060453</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
-        <v>295.6317733066248</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q37" t="n">
-        <v>120.4022572998982</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>176.2645232599131</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,31 +37855,31 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>8.181160134949776</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38092,13 +38092,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38110,16 +38110,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>0.7540807028592577</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_17_29.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2148349.637561889</v>
+        <v>2150110.167864676</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>75.45713216103543</v>
+        <v>24.14763241892771</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,10 +676,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -709,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
         <v>203.9179701396202</v>
@@ -724,10 +724,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734075887</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -885,7 +885,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>80.71262740536758</v>
+        <v>80.71262740536827</v>
       </c>
     </row>
     <row r="5">
@@ -901,7 +901,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>195.5565936082874</v>
+        <v>195.5565936082896</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1068,7 +1068,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>71.67037196991669</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>297.4419710579493</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1183,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>292.3520130340203</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1381,7 +1381,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1533,7 +1533,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1545,7 +1545,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,10 +1575,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>77.73359659137328</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>193.9962538432431</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1666,7 +1666,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V14" t="n">
-        <v>327.7522584701368</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
         <v>349.240968717413</v>
@@ -1764,28 +1764,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>34.22340015156625</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>235.2417404045067</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1843,7 +1843,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2004,16 +2004,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>53.08838020946216</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>228.9553704673027</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2253,7 +2253,7 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
@@ -2286,13 +2286,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>160.1763464053464</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2317,7 +2317,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>382.7338416634825</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
         <v>365.2728917710076</v>
@@ -2368,10 +2368,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U23" t="n">
         <v>250.9057009881286</v>
@@ -2490,7 +2490,7 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,13 +2605,13 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
         <v>327.7522584701349</v>
@@ -2721,16 +2721,16 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2772,7 +2772,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
-        <v>252.137643323828</v>
+        <v>208.8723798708782</v>
       </c>
       <c r="W28" t="n">
         <v>286.522998336591</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,19 +2955,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,10 +2997,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
@@ -3009,7 +3009,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>194.9085394018862</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3201,13 +3201,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703271</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,19 +3429,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>108.2950343703271</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3660,28 +3660,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>20.9284728855285</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>61.17550840396343</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3903,13 +3903,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,19 +3948,19 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
-        <v>214.4033048062054</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
         <v>225.7096553890372</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>32.44181015857162</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,10 +4182,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4203,7 +4203,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y46" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
   </sheetData>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1232.150970528559</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1232.150970528559</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
-        <v>1232.150970528559</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528559</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389512</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839476</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,40 +4342,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794323</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450752</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180638</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919558</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943746</v>
+        <v>2071.975386180639</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556939</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275812</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.70869461456</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609105</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.93668163599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468608</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064756</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080135</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986308</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978978</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291643</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.964263962569</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.605821609169</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201687</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695167</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373022</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507438</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275695</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547494</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.071769341961</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577007</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4485,7 +4485,7 @@
         <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.6347488791189</v>
@@ -4494,19 +4494,19 @@
         <v>315.6219318279952</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M4" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N4" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O4" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P4" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q4" t="n">
         <v>1927.294548088492</v>
@@ -4530,7 +4530,7 @@
         <v>1582.779602640133</v>
       </c>
       <c r="X4" t="n">
-        <v>1354.790051742115</v>
+        <v>1354.790051742116</v>
       </c>
       <c r="Y4" t="n">
         <v>1273.262145272047</v>
@@ -4543,10 +4543,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1517.887535471214</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="C5" t="n">
-        <v>1517.887535471214</v>
+        <v>1517.887535471216</v>
       </c>
       <c r="D5" t="n">
         <v>1320.35562273557</v>
@@ -4564,55 +4564,55 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2961.7846764101</v>
+        <v>2961.784676410103</v>
       </c>
       <c r="V5" t="n">
-        <v>2630.72178906653</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2277.953133796415</v>
+        <v>2277.953133796418</v>
       </c>
       <c r="X5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
       <c r="Y5" t="n">
-        <v>1904.487375535336</v>
+        <v>1904.487375535338</v>
       </c>
     </row>
     <row r="6">
@@ -4637,22 +4637,22 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228005</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4701,40 +4701,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>752.7622949738575</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>583.8261120459506</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>433.7094726336148</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>285.7963790512217</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>138.9064315533114</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760404</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
@@ -4746,31 +4746,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V7" t="n">
-        <v>1672.610059882605</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W7" t="n">
-        <v>1383.192889845645</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1155.203338947627</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>934.4107598040972</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,7 +4780,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1979.067756754391</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C8" t="n">
         <v>1678.62132134232</v>
@@ -4804,7 +4804,7 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810553</v>
@@ -4813,7 +4813,7 @@
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4831,25 +4831,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3215.315153136266</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="T8" t="n">
-        <v>3009.337405520488</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="U8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="W8" t="n">
-        <v>2755.806928794324</v>
+        <v>3119.628073993393</v>
       </c>
       <c r="X8" t="n">
-        <v>2755.806928794324</v>
+        <v>2824.323010322666</v>
       </c>
       <c r="Y8" t="n">
-        <v>2365.667596818512</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927784</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I9" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K9" t="n">
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,25 +5114,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L12" t="n">
-        <v>740.5562989961528</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M12" t="n">
-        <v>1337.934786622705</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N12" t="n">
-        <v>1965.532750177312</v>
+        <v>1965.532750177311</v>
       </c>
       <c r="O12" t="n">
         <v>2516.421633107662</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>724.7519863413023</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C13" t="n">
-        <v>555.8158034133954</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D13" t="n">
-        <v>555.8158034133954</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F13" t="n">
-        <v>261.012762333092</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854707</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.70136564882</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W13" t="n">
-        <v>1355.182581213089</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X13" t="n">
-        <v>1127.193030315072</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.400451171542</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="14">
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,61 +5266,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168615</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192609</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516146</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167374</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1671.859558793926</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2299.457522348533</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="D16" t="n">
-        <v>408.9258559154851</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>261.012762333092</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235172</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258113</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602311</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396424</v>
+        <v>1517.813638001792</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359463</v>
+        <v>1228.396467964831</v>
       </c>
       <c r="X16" t="n">
-        <v>983.340348461446</v>
+        <v>1000.406917066814</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179158</v>
+        <v>779.6143379232838</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192608</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075825</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.89852635594</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068013</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694711</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803939</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245697</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403286</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>571.6607764188008</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C19" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1746.193029533436</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V19" t="n">
-        <v>1491.508541327549</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W19" t="n">
-        <v>1202.091371290588</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X19" t="n">
-        <v>974.1018203925706</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y19" t="n">
-        <v>753.3092412490405</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="20">
@@ -5731,37 +5731,37 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111703</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
         <v>2950.898526355937</v>
@@ -5770,31 +5770,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G22" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,7 +5968,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
         <v>1590.547811004713</v>
@@ -5977,64 +5977,64 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,16 +6220,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6238,37 +6238,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,16 +6299,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400717</v>
+        <v>557.5558870561822</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.70136564882</v>
+        <v>1477.40365196493</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611859</v>
+        <v>1187.986481927969</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138415</v>
+        <v>959.9969310299521</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703114</v>
+        <v>739.2043518864219</v>
       </c>
     </row>
     <row r="29">
@@ -6451,40 +6451,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V31" t="n">
-        <v>1491.508541327549</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="32">
@@ -6679,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6688,22 +6688,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192605</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6712,37 +6712,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
         <v>2704.375866615997</v>
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,16 +6773,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6913,46 +6913,46 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6970,19 +6970,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="36">
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,25 +7171,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,55 +7308,55 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>762.547769317909</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>762.547769317909</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>612.4311299055732</v>
+        <v>261.8464821474262</v>
       </c>
       <c r="E40" t="n">
-        <v>464.5180363231801</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>464.5180363231801</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>297.3219370380601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
-        <v>155.6101058802582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
         <v>2264.108249235165</v>
@@ -7374,10 +7374,10 @@
         <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614391</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.547769317909</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7402,28 +7402,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111714</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075798</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>653.7474797708871</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C43" t="n">
-        <v>484.8112968429802</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D43" t="n">
-        <v>484.8112968429802</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E43" t="n">
-        <v>484.8112968429802</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429802</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1284.178074642674</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1056.188523744657</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>835.3959446011269</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7639,16 +7639,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7657,10 +7657,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7782,25 +7782,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>984.5467179762944</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>815.6105350483875</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>665.4938956360518</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>517.5808020536587</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7830,28 +7830,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2227.361618603201</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1938.286391947399</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1683.601903741512</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1166.195182806534</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>1166.195182806534</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>2.288530476235451e-12</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23421,7 +23421,7 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23463,10 +23463,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>208.7894017452177</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>24.58839950885167</v>
       </c>
     </row>
     <row r="14">
@@ -23652,28 +23652,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>145.6085800303711</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>16.89590291932126</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23892,16 +23892,16 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>114.1584408891657</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>57.22910392194143</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -24141,13 +24141,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24180,7 +24180,7 @@
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>57.22910392194191</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24609,19 +24609,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>43.2652634529498</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24843,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,10 +24885,10 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>10.85445046951749</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -24897,7 +24897,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>57.22910392194183</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -25089,13 +25089,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194174</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>57.22910392194174</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25548,28 +25548,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>125.5054897610407</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>20.09032791460209</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25791,13 +25791,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25833,22 +25833,22 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="n">
-        <v>72.11969353038563</v>
+        <v>0</v>
       </c>
       <c r="X43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>112.9792378643596</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,10 +26070,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26091,7 +26091,7 @@
         <v>0</v>
       </c>
       <c r="Y46" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874657</v>
       </c>
     </row>
     <row r="11">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>837694.3120874658</v>
+        <v>837694.3120874659</v>
       </c>
     </row>
     <row r="13">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>837694.312087466</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.312087466</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>837694.3120874659</v>
+        <v>837694.3120874658</v>
       </c>
     </row>
   </sheetData>
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="C2" t="n">
-        <v>595255.2831516056</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="D2" t="n">
-        <v>595255.2831516054</v>
+        <v>595255.2831516055</v>
       </c>
       <c r="E2" t="n">
+        <v>585181.2847752544</v>
+      </c>
+      <c r="F2" t="n">
+        <v>585181.2847752543</v>
+      </c>
+      <c r="G2" t="n">
         <v>585181.2847752542</v>
       </c>
-      <c r="F2" t="n">
-        <v>585181.2847752544</v>
-      </c>
-      <c r="G2" t="n">
-        <v>585181.2847752541</v>
-      </c>
       <c r="H2" t="n">
-        <v>585181.2847752544</v>
+        <v>585181.2847752545</v>
       </c>
       <c r="I2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752548</v>
       </c>
       <c r="J2" t="n">
         <v>585181.2847752544</v>
@@ -26343,7 +26343,7 @@
         <v>585181.2847752543</v>
       </c>
       <c r="L2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="M2" t="n">
         <v>585181.2847752542</v>
@@ -26352,10 +26352,10 @@
         <v>585181.2847752543</v>
       </c>
       <c r="O2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752544</v>
       </c>
       <c r="P2" t="n">
-        <v>585181.2847752543</v>
+        <v>585181.2847752547</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
-        <v>1.947259988810401e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073557</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,7 +26389,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.0279355119</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,28 +26417,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90354.06702314495</v>
+        <v>90354.06702314483</v>
       </c>
       <c r="C4" t="n">
-        <v>90354.0670231449</v>
+        <v>90354.06702314479</v>
       </c>
       <c r="D4" t="n">
-        <v>90354.0670231448</v>
+        <v>90354.06702314477</v>
       </c>
       <c r="E4" t="n">
         <v>11167.03225179352</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.03225179342</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
         <v>11167.03225179351</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179343</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26478,13 +26478,13 @@
         <v>107933.9405613933</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="G5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="H5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-931777.4701605247</v>
+        <v>-931777.4701605249</v>
       </c>
       <c r="C6" t="n">
         <v>396967.2755670672</v>
       </c>
       <c r="D6" t="n">
-        <v>396967.2755670671</v>
+        <v>396967.2755670674</v>
       </c>
       <c r="E6" t="n">
-        <v>147131.8816378409</v>
+        <v>147444.5229667629</v>
       </c>
       <c r="F6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="G6" t="n">
-        <v>472544.3434451965</v>
+        <v>472856.9847741178</v>
       </c>
       <c r="H6" t="n">
-        <v>472544.3434451969</v>
+        <v>472856.9847741182</v>
       </c>
       <c r="I6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741184</v>
       </c>
       <c r="J6" t="n">
-        <v>255013.1410479196</v>
+        <v>255325.7823768406</v>
       </c>
       <c r="K6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="L6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="M6" t="n">
-        <v>387489.3155096847</v>
+        <v>387801.956838606</v>
       </c>
       <c r="N6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741179</v>
       </c>
       <c r="O6" t="n">
-        <v>472544.3434451967</v>
+        <v>472856.9847741181</v>
       </c>
       <c r="P6" t="n">
-        <v>472544.3434451968</v>
+        <v>472856.9847741183</v>
       </c>
     </row>
   </sheetData>
@@ -26789,37 +26789,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022918</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.306832697356</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022923</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973562</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>307.2767095024452</v>
+        <v>358.5862092445529</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27444,10 +27444,10 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27605,7 +27605,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>137.8720259467272</v>
+        <v>137.8720259467265</v>
       </c>
     </row>
     <row r="5">
@@ -27621,7 +27621,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>159.1264480123956</v>
+        <v>159.1264480123934</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27788,13 +27788,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>94.35543628911154</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004734</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27833,7 +27833,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>67.83092071305822</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27903,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27918,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>77.37908764444876</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28386,7 +28386,7 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
         <v>0</v>
@@ -28529,7 +28529,7 @@
         <v>0</v>
       </c>
       <c r="Q16" t="n">
-        <v>6.41004286687045e-12</v>
+        <v>0</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -28578,7 +28578,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-2.103206497849897e-12</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -29037,7 +29037,7 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.932676241267473e-12</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H2" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I2" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K2" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N2" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R2" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T2" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,37 +31120,37 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H3" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J3" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O3" t="n">
-        <v>557.7086478970248</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q3" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R3" t="n">
         <v>145.5365940905541</v>
@@ -31159,7 +31159,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31208,16 +31208,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J4" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L4" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N4" t="n">
         <v>300.7247737883114</v>
@@ -31226,19 +31226,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q4" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S4" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780294</v>
@@ -31278,43 +31278,43 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
@@ -31363,40 +31363,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,13 +31436,13 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
         <v>138.937596729739</v>
@@ -31451,16 +31451,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
         <v>237.6785118802169</v>
@@ -31469,16 +31469,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31846,16 +31846,16 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>699.0496615458081</v>
+        <v>699.0496615458086</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
@@ -31867,13 +31867,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159432</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,19 +32080,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>398.7616643558004</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,19 +32317,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>173.8200325543346</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33420,34 +33420,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J32" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
         <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
         <v>125.31755462929</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N2" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,28 +34777,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M3" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q3" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306617</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L4" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.053000888219</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037194</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597705</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,10 +35093,10 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.5784166130662</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
         <v>319.7573721701981</v>
@@ -35108,13 +35108,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789363</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,25 +35485,25 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>556.4534171013637</v>
+        <v>556.4534171013642</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
@@ -35512,7 +35512,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193524</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,25 +35722,25 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>256.165419911356</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35804,28 +35804,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572999048</v>
+        <v>120.4022572998984</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>35.97859357997559</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38040,7 +38040,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
